--- a/Data base (1).xlsx
+++ b/Data base (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="10880" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="10880" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cab companies" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="2252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="2257">
   <si>
     <t>Company</t>
   </si>
@@ -6801,6 +6801,21 @@
   </si>
   <si>
     <t>info@pentaevents.com</t>
+  </si>
+  <si>
+    <t>Montyzbnxj</t>
+  </si>
+  <si>
+    <t>xz</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -7141,7 +7156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7316,6 +7331,9 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -13957,7 +13975,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="17">
       <c r="A117" s="25" t="s">
         <v>993</v>
       </c>
@@ -13985,7 +14003,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="17">
       <c r="A119" s="31" t="s">
         <v>1001</v>
       </c>
@@ -14013,7 +14031,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="18">
       <c r="A121" s="15" t="s">
         <v>1009</v>
       </c>
@@ -14041,7 +14059,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="18">
       <c r="A123" s="15" t="s">
         <v>1017</v>
       </c>
@@ -14055,7 +14073,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="18">
       <c r="A124" s="15" t="s">
         <v>1021</v>
       </c>
@@ -14069,7 +14087,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="18">
       <c r="A125" s="15" t="s">
         <v>1025</v>
       </c>
@@ -14083,7 +14101,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="18">
       <c r="A126" s="37" t="s">
         <v>1029</v>
       </c>
@@ -39872,8 +39890,8 @@
   <dimension ref="A1:Z966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -40278,7 +40296,9 @@
       <c r="Z13" s="45"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="90" t="s">
+        <v>2252</v>
+      </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -40306,7 +40326,9 @@
       <c r="Z14" s="45"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="90" t="s">
+        <v>2253</v>
+      </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -40334,7 +40356,9 @@
       <c r="Z15" s="45"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="90" t="s">
+        <v>2254</v>
+      </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -40362,7 +40386,9 @@
       <c r="Z16" s="45"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="90" t="s">
+        <v>2255</v>
+      </c>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -40390,7 +40416,9 @@
       <c r="Z17" s="45"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="90" t="s">
+        <v>2256</v>
+      </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -40418,7 +40446,9 @@
       <c r="Z18" s="45"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="90" t="s">
+        <v>2254</v>
+      </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -40446,7 +40476,9 @@
       <c r="Z19" s="45"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="90" t="s">
+        <v>2256</v>
+      </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -66970,7 +67002,6 @@
     <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -67540,7 +67571,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="17">
       <c r="A33" s="54" t="s">
         <v>2096</v>
       </c>
@@ -67572,7 +67603,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="17">
       <c r="A35" s="54" t="s">
         <v>2105</v>
       </c>
@@ -68148,7 +68179,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" ht="17">
       <c r="B29" s="6" t="s">
         <v>2221</v>
       </c>
@@ -68162,7 +68193,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" ht="15">
       <c r="B30" s="6" t="s">
         <v>2225</v>
       </c>
@@ -68218,7 +68249,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" ht="15">
       <c r="B34" s="6" t="s">
         <v>2241</v>
       </c>
